--- a/WT-service/WT-company-service/src/main/resources/excel/GroupTemplate.xlsx
+++ b/WT-service/WT-company-service/src/main/resources/excel/GroupTemplate.xlsx
@@ -3,23 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D8E4DB-DD2D-4105-A1CA-52BCD1947DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90C62CD-BAFB-4463-910A-8F814002F798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="meta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>eyJ2ZXJzaW9uIjoidjEiLCJ0aXRsZV90b19jb2xfa2V5Ijp7IuaYr+WQpuWIm+W7uumDqOmXqOe+pCI6ImNyZWF0ZV9jaGF0Iiwi6Ieq5Yqo5Yqg6YOo6Zeo576k55qE5Lq65ZGY57G75Z6LIjoiZW1wbG95ZWVfdHlwZXMiLCLpg6jpl6giOiJmdWxsX3BhdGgiLCLpg6jpl6ggSUQiOiJjdXN0b21faWQiLCLpg6jpl6jotJ/otKPkuroiOiJsZWFkZXJzIn0sImZlYXR1cmVfZ2F0ZV9zdGF0dXMiOnt9LCJkYXRhX3Jvd19zdGFydCI6M30=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>团队名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -40,9 +36,9 @@
     <t>填写须知：
 1. 请勿修改表格结构；
 2. 团队名称和团队负责人为必填项，请务必填写完整；
-3. 团队ID：请勿修改导出的团队ID，团队ID仅在更新部门信息时使用，创建团队时请勿填写，以防导致对应部门信息更改；
+3. 团队ID：请勿填写/修改导出的团队ID。团队ID仅在更新团队信息时使用，创建团队时请勿填写，以防导致对应团队信息更改；
 4. 团队名称：请输入非空字符串作为团队的名称；
-5. 部门负责人：导入部门信息时，请填写部门负责人的邮箱。如匹配失败，请检查是否填对字段或填写邮箱是否正确；
+5. 团队负责人：导入团队信息时，请填写团队负责人的邮箱。如匹配失败，请检查是否填对字段或填写邮箱是否正确；
 6. 团队描述：如不存在团队描述，团队描述可以为空。</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -419,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -432,7 +428,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -440,16 +436,16 @@
     </row>
     <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -476,23 +472,4 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>